--- a/src/main/resources/template/excel/export/purchaseActivitylGoodsSkuCodeTemplate.xlsx
+++ b/src/main/resources/template/excel/export/purchaseActivitylGoodsSkuCodeTemplate.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
@@ -24,19 +24,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>货号</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动进货价</t>
-    <rPh sb="0" eb="1">
-      <t>huo'd</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>jin'huo'j</t>
-    </rPh>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -44,9 +34,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -122,19 +109,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -157,312 +137,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>658495</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>113665</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name=" 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6010275" y="228600"/>
-          <a:ext cx="3011170" cy="1256665"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -83719"/>
-            <a:gd name="adj2" fmla="val 9611"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx2">
-              <a:lumMod val="20000"/>
-              <a:lumOff val="80000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr anchor="t" anchorCtr="0"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="zh-CN"/>
-          </a:defPPr>
-          <a:lvl1pPr algn="l" rtl="0" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="0"/>
-            </a:spcAft>
-            <a:defRPr kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" rtl="0" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="0"/>
-            </a:spcAft>
-            <a:defRPr kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" rtl="0" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="0"/>
-            </a:spcAft>
-            <a:defRPr kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" rtl="0" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="0"/>
-            </a:spcAft>
-            <a:defRPr kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" rtl="0" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="0"/>
-            </a:spcAft>
-            <a:defRPr kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="l" eaLnBrk="1" fontAlgn="auto" hangingPunct="1">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="1" u="sng">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
-              <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
-            </a:rPr>
-            <a:t>正式使用时，需删掉本说明和表中例子，栏位说明：                  </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" eaLnBrk="1" fontAlgn="auto" hangingPunct="1">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
-              <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
-            </a:rPr>
-            <a:t>货号：</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
-              <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
-            </a:rPr>
-            <a:t>必填，未填导入失败。</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1000">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
-            <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" eaLnBrk="1" fontAlgn="auto" hangingPunct="1">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
-              <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
-            </a:rPr>
-            <a:t>特价：</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
-              <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
-            </a:rPr>
-            <a:t>未填时默认为</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
-              <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
-            </a:rPr>
-            <a:t>0</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
-              <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
-            </a:rPr>
-            <a:t>，商品活动进货价格。</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -752,63 +426,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B100"/>
+  <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="11.1640625" style="5" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
-        <v>330099</v>
-      </c>
-      <c r="B2" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>330088</v>
-      </c>
-      <c r="B3" s="5">
+    <row r="1" spans="1:1" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+    <row r="2" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>330099</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>330088</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>330077</v>
       </c>
-      <c r="B4" s="5">
-        <v>4</v>
-      </c>
     </row>
-    <row r="5" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -897,6 +558,5 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/main/resources/template/excel/export/purchaseActivitylGoodsSkuCodeTemplate.xlsx
+++ b/src/main/resources/template/excel/export/purchaseActivitylGoodsSkuCodeTemplate.xlsx
@@ -34,6 +34,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="000000"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -46,24 +49,25 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -115,13 +119,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -429,12 +433,12 @@
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
